--- a/synuclein_inclusion_biogenesis_2024/image_analysis/galectin/23525_3K_dox.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/galectin/23525_3K_dox.xlsx
@@ -668,7 +668,7 @@
         <v>0.03862973760932945</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1720430107526882</v>
+        <v>0.2215694502727654</v>
       </c>
       <c r="I5" t="n">
         <v>0.01948304974672035</v>
@@ -1174,7 +1174,7 @@
         <v>0.5872594558725945</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05254208467947628</v>
+        <v>0.07064471879286695</v>
       </c>
       <c r="I16" t="n">
         <v>0.03555660674865973</v>
@@ -1358,7 +1358,7 @@
         <v>0.04810126582278481</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01614802354920101</v>
+        <v>0.0172972972972973</v>
       </c>
       <c r="I20" t="n">
         <v>0.047706777853195</v>
@@ -1404,7 +1404,7 @@
         <v>0.07554671968190854</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02898154477101846</v>
+        <v>0.03112155020551967</v>
       </c>
       <c r="I21" t="n">
         <v>0.03146917681801403</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03082342580361075</v>
+        <v>0.03443187407771766</v>
       </c>
       <c r="I27" t="n">
         <v>0.1763543257568952</v>
@@ -2094,7 +2094,7 @@
         <v>0.01291989664082687</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03500420050406049</v>
+        <v>0.03925879396984925</v>
       </c>
       <c r="I36" t="n">
         <v>0.01544099481182574</v>
@@ -2140,7 +2140,7 @@
         <v>0.9280575539568345</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1821844225604297</v>
+        <v>0.2080777096114519</v>
       </c>
       <c r="I37" t="n">
         <v>0.0281550894085282</v>
@@ -2462,7 +2462,7 @@
         <v>0.2477396021699819</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1141509433962264</v>
+        <v>0.1250215257447908</v>
       </c>
       <c r="I44" t="n">
         <v>0.01047207446808511</v>
@@ -2554,7 +2554,7 @@
         <v>0.6371571072319202</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1198353648883964</v>
+        <v>0.1372620126926564</v>
       </c>
       <c r="I46" t="n">
         <v>0.01695590579068532</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.00165016501650165</v>
+        <v>0.001772656769333038</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>0.9170383586083853</v>
       </c>
       <c r="H52" t="n">
-        <v>0.04487334137515078</v>
+        <v>0.0615079365079365</v>
       </c>
       <c r="I52" t="n">
         <v>0.01250325605626465</v>
@@ -2922,7 +2922,7 @@
         <v>0.4300791556728232</v>
       </c>
       <c r="H54" t="n">
-        <v>0.09107426754485579</v>
+        <v>0.0996520874751491</v>
       </c>
       <c r="I54" t="n">
         <v>0.02412502228296393</v>
@@ -3106,7 +3106,7 @@
         <v>0.06122448979591837</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2389210019267823</v>
+        <v>0.2525458248472505</v>
       </c>
       <c r="I58" t="n">
         <v>0.03553675884986131</v>
@@ -3290,7 +3290,7 @@
         <v>0.425</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2162473593239869</v>
+        <v>0.2231028333663563</v>
       </c>
       <c r="I62" t="n">
         <v>0.1127530275871114</v>
@@ -3428,7 +3428,7 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1888223552894212</v>
+        <v>0.2002540220152413</v>
       </c>
       <c r="I65" t="n">
         <v>0.02697156259161536</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.003168735146554</v>
+        <v>0.003723816912335144</v>
       </c>
       <c r="I66" t="n">
         <v>0.008013640238704177</v>
@@ -3520,7 +3520,7 @@
         <v>0.009523809523809525</v>
       </c>
       <c r="H67" t="n">
-        <v>0.09704335207690912</v>
+        <v>0.1072574178027265</v>
       </c>
       <c r="I67" t="n">
         <v>0.04489063010120797</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.009030704394942806</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="I68" t="n">
         <v>0.001097935880544576</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03553903345724907</v>
+        <v>0.04238340131228941</v>
       </c>
       <c r="I69" t="n">
         <v>0.03255581888486965</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3498583569405099</v>
+        <v>0.3569364161849711</v>
       </c>
       <c r="I70" t="n">
         <v>0.03130419701699618</v>
@@ -3796,7 +3796,7 @@
         <v>0.05504587155963303</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1672686230248307</v>
+        <v>0.1805995612966122</v>
       </c>
       <c r="I73" t="n">
         <v>0.02098601612738593</v>
@@ -3980,7 +3980,7 @@
         <v>0.2911392405063291</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1387487386478305</v>
+        <v>0.1445086705202312</v>
       </c>
       <c r="I77" t="n">
         <v>0.006194185825574767</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.01577598106882272</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0.2321428571428572</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2743998598212721</v>
+        <v>0.314520988150231</v>
       </c>
       <c r="I79" t="n">
         <v>0.09557610405555769</v>
@@ -4118,7 +4118,7 @@
         <v>0.3876923076923077</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2847263386682474</v>
+        <v>0.3042652027027027</v>
       </c>
       <c r="I80" t="n">
         <v>0.08517612298601172</v>
@@ -4348,7 +4348,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>0.2646182787270732</v>
+        <v>0.2841272513044942</v>
       </c>
       <c r="I85" t="n">
         <v>0.03772096996779917</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.006754148977228869</v>
+        <v>0.007570841444949167</v>
       </c>
       <c r="I87" t="n">
         <v>0.005056696291756053</v>
@@ -4578,7 +4578,7 @@
         <v>0.493573264781491</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1529818496110631</v>
+        <v>0.1640103780578206</v>
       </c>
       <c r="I90" t="n">
         <v>0.09908930270490689</v>
@@ -4808,7 +4808,7 @@
         <v>0.1686746987951807</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2540760869565217</v>
+        <v>0.2625350982751705</v>
       </c>
       <c r="I95" t="n">
         <v>0.09590821931164484</v>
@@ -5038,7 +5038,7 @@
         <v>0.6855203619909502</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4148529973272241</v>
+        <v>0.4530859049207673</v>
       </c>
       <c r="I100" t="n">
         <v>0.0153702357461834</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0004703668861712136</v>
+        <v>0.000485201358563804</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0.1462585034013605</v>
       </c>
       <c r="H106" t="n">
-        <v>0.02581273590648971</v>
+        <v>0.02677105695163531</v>
       </c>
       <c r="I106" t="n">
         <v>0.006106870229007634</v>
@@ -5360,7 +5360,7 @@
         <v>0.03198653198653199</v>
       </c>
       <c r="H107" t="n">
-        <v>0.05403251514185527</v>
+        <v>0.05968309859154929</v>
       </c>
       <c r="I107" t="n">
         <v>0.09140679140679141</v>
@@ -5406,7 +5406,7 @@
         <v>0.002156721782890007</v>
       </c>
       <c r="H108" t="n">
-        <v>0.01280801893359321</v>
+        <v>0.01588397790055249</v>
       </c>
       <c r="I108" t="n">
         <v>0.01071781906122898</v>
@@ -5452,7 +5452,7 @@
         <v>0.001821493624772313</v>
       </c>
       <c r="H109" t="n">
-        <v>0.001772002362669817</v>
+        <v>0.001894896412329459</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0204020402040204</v>
+        <v>0.02395631495508191</v>
       </c>
       <c r="I110" t="n">
         <v>0.08092485549132948</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>0.002443792766373412</v>
+        <v>0.002715423606082549</v>
       </c>
       <c r="I121" t="n">
         <v>0.001429532458795829</v>
@@ -6188,7 +6188,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="H125" t="n">
-        <v>0.2518921475875118</v>
+        <v>0.2574329224075417</v>
       </c>
       <c r="I125" t="n">
         <v>0.03432906348577924</v>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>0.003863134657836645</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="I128" t="n">
         <v>0.002154723013831932</v>
@@ -6832,7 +6832,7 @@
         <v>0.6091644204851752</v>
       </c>
       <c r="H139" t="n">
-        <v>0.1313998224326724</v>
+        <v>0.1390324095819634</v>
       </c>
       <c r="I139" t="n">
         <v>0.04122281752284904</v>
@@ -6878,7 +6878,7 @@
         <v>0.656957928802589</v>
       </c>
       <c r="H140" t="n">
-        <v>0.1070234113712375</v>
+        <v>0.1155532628320867</v>
       </c>
       <c r="I140" t="n">
         <v>0.00625709079657579</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0412109375</v>
+        <v>0.04642464246424643</v>
       </c>
       <c r="I143" t="n">
         <v>0.00782967032967033</v>
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>0.01844701844701845</v>
+        <v>0.02065652522017614</v>
       </c>
       <c r="I144" t="n">
         <v>0.00767637998080905</v>
